--- a/example_data/EPA/label_corrected/091234-00075-20180806_2018-12-10_104657.xlsx
+++ b/example_data/EPA/label_corrected/091234-00075-20180806_2018-12-10_104657.xlsx
@@ -1072,7 +1072,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PPE || Application Instructions</t>
+          <t>ppe || application instructions</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PPE || Application Instructions</t>
+          <t>ppe || application instructions</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information || mixing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information || mixing</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions</t>
+          <t>use restrictions || mixing</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information || mixing</t>
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information || mixing</t>
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G247" t="inlineStr"/>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G248" t="inlineStr"/>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G252" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G254" t="inlineStr"/>
@@ -7679,7 +7679,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G258" t="inlineStr"/>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G262" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G265" t="inlineStr"/>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G266" t="inlineStr"/>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G267" t="inlineStr"/>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G271" t="inlineStr"/>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G272" t="inlineStr"/>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G277" t="inlineStr"/>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G278" t="inlineStr"/>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation</t>
+          <t>irrigation || chemigation</t>
         </is>
       </c>
       <c r="G279" t="inlineStr"/>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G283" t="inlineStr"/>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures</t>
+          <t>safety procedures || chemigation</t>
         </is>
       </c>
       <c r="G284" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Chemigation || Application Instructions || Irrigation</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G287" t="inlineStr"/>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G288" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G290" t="inlineStr"/>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G291" t="inlineStr"/>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G293" t="inlineStr"/>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G296" t="inlineStr"/>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G297" t="inlineStr"/>
@@ -9072,7 +9072,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G300" t="inlineStr"/>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G301" t="inlineStr"/>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G303" t="inlineStr"/>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G312" t="inlineStr"/>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G319" t="inlineStr"/>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G323" t="inlineStr"/>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G330" t="inlineStr"/>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G335" t="inlineStr"/>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G336" t="inlineStr"/>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G338" t="inlineStr"/>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G339" t="inlineStr"/>
@@ -10280,7 +10280,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G340" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G351" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G352" t="inlineStr"/>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G358" t="inlineStr"/>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G359" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G361" t="inlineStr"/>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G362" t="inlineStr"/>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G391" t="inlineStr"/>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G393" t="inlineStr"/>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G394" t="inlineStr"/>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G428" t="inlineStr"/>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G430" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>PPE || Application Instructions</t>
+          <t>ppe || application instructions</t>
         </is>
       </c>
       <c r="G432" t="inlineStr"/>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G433" t="inlineStr"/>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G435" t="inlineStr"/>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G436" t="inlineStr"/>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G437" t="inlineStr"/>
@@ -13121,7 +13121,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G444" t="inlineStr"/>
@@ -13182,7 +13182,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G446" t="inlineStr"/>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G449" t="inlineStr"/>
@@ -13300,7 +13300,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information || mixing</t>
         </is>
       </c>
       <c r="G450" t="inlineStr"/>
@@ -13359,7 +13359,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G452" t="inlineStr"/>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G453" t="inlineStr"/>
@@ -13419,7 +13419,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G454" t="inlineStr"/>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G455" t="inlineStr"/>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>PPE || Application Instructions</t>
+          <t>ppe || application instructions</t>
         </is>
       </c>
       <c r="G457" t="inlineStr"/>
@@ -13529,7 +13529,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G458" t="inlineStr"/>
@@ -13556,7 +13556,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G459" t="inlineStr"/>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G461" t="inlineStr"/>
@@ -13677,7 +13677,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G463" t="inlineStr"/>
@@ -13708,7 +13708,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G464" t="inlineStr"/>
@@ -13796,7 +13796,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G467" t="inlineStr"/>
@@ -13830,7 +13830,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G468" t="inlineStr"/>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G478" t="inlineStr"/>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G480" t="inlineStr"/>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G481" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G482" t="inlineStr"/>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G483" t="inlineStr"/>
@@ -14348,7 +14348,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G485" t="inlineStr"/>
@@ -14404,7 +14404,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G487" t="inlineStr"/>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G493" t="inlineStr"/>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G494" t="inlineStr"/>
@@ -14683,7 +14683,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G496" t="inlineStr"/>
@@ -15459,7 +15459,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G524" t="inlineStr"/>
@@ -15511,7 +15511,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G526" t="inlineStr"/>
@@ -15548,7 +15548,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G527" t="inlineStr"/>
